--- a/Code/Results/Cases/Case_5_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_225/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014980092205897</v>
+        <v>1.039690384347496</v>
       </c>
       <c r="D2">
-        <v>1.031025087677409</v>
+        <v>1.043064676187131</v>
       </c>
       <c r="E2">
-        <v>1.025956923607656</v>
+        <v>1.047083747646935</v>
       </c>
       <c r="F2">
-        <v>1.029006775434959</v>
+        <v>1.055334453513963</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052045502698074</v>
+        <v>1.041427754092699</v>
       </c>
       <c r="J2">
-        <v>1.036721800111264</v>
+        <v>1.044781034722958</v>
       </c>
       <c r="K2">
-        <v>1.042068474229744</v>
+        <v>1.045839595071605</v>
       </c>
       <c r="L2">
-        <v>1.037066104231053</v>
+        <v>1.049847376264761</v>
       </c>
       <c r="M2">
-        <v>1.040076266184082</v>
+        <v>1.05807519649695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019371112021892</v>
+        <v>1.040609577373308</v>
       </c>
       <c r="D3">
-        <v>1.03433997710108</v>
+        <v>1.043770930488109</v>
       </c>
       <c r="E3">
-        <v>1.029764137269242</v>
+        <v>1.047935789649966</v>
       </c>
       <c r="F3">
-        <v>1.033461792096097</v>
+        <v>1.056349101702798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053570301801234</v>
+        <v>1.041679943851033</v>
       </c>
       <c r="J3">
-        <v>1.039347277993212</v>
+        <v>1.045345689014042</v>
       </c>
       <c r="K3">
-        <v>1.044551545422975</v>
+        <v>1.04635708247969</v>
       </c>
       <c r="L3">
-        <v>1.040029834061151</v>
+        <v>1.050511086525434</v>
       </c>
       <c r="M3">
-        <v>1.043683702609445</v>
+        <v>1.058902752084843</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022154837590651</v>
+        <v>1.041204687713334</v>
       </c>
       <c r="D4">
-        <v>1.036443098795098</v>
+        <v>1.044228070383623</v>
       </c>
       <c r="E4">
-        <v>1.032183548927423</v>
+        <v>1.048487844858186</v>
       </c>
       <c r="F4">
-        <v>1.036293678601773</v>
+        <v>1.057006714139266</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054526225216746</v>
+        <v>1.041841896329369</v>
       </c>
       <c r="J4">
-        <v>1.041008310950403</v>
+        <v>1.04571075354616</v>
       </c>
       <c r="K4">
-        <v>1.046120717502175</v>
+        <v>1.046691403682436</v>
       </c>
       <c r="L4">
-        <v>1.041908464401148</v>
+        <v>1.050940633937387</v>
       </c>
       <c r="M4">
-        <v>1.045972948336463</v>
+        <v>1.059438690554835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023311807537091</v>
+        <v>1.041454950318723</v>
       </c>
       <c r="D5">
-        <v>1.03731753839221</v>
+        <v>1.044420285625037</v>
       </c>
       <c r="E5">
-        <v>1.033190461428788</v>
+        <v>1.04872010162592</v>
       </c>
       <c r="F5">
-        <v>1.037472468042477</v>
+        <v>1.057283428643119</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054920911052131</v>
+        <v>1.041909685801265</v>
       </c>
       <c r="J5">
-        <v>1.04169781877271</v>
+        <v>1.045864152826446</v>
       </c>
       <c r="K5">
-        <v>1.046771659378992</v>
+        <v>1.04683182498823</v>
       </c>
       <c r="L5">
-        <v>1.04268916882104</v>
+        <v>1.051121234383256</v>
       </c>
       <c r="M5">
-        <v>1.046924923730593</v>
+        <v>1.059664106800136</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023505300752062</v>
+        <v>1.04149697506855</v>
       </c>
       <c r="D6">
-        <v>1.037463799611075</v>
+        <v>1.04445256134245</v>
       </c>
       <c r="E6">
-        <v>1.033358937783496</v>
+        <v>1.048759108652024</v>
       </c>
       <c r="F6">
-        <v>1.037669715854872</v>
+        <v>1.05732990509794</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054986764057786</v>
+        <v>1.041921050614766</v>
       </c>
       <c r="J6">
-        <v>1.041813082172937</v>
+        <v>1.045889904882781</v>
       </c>
       <c r="K6">
-        <v>1.046880450005723</v>
+        <v>1.046855394848232</v>
       </c>
       <c r="L6">
-        <v>1.042819728705087</v>
+        <v>1.051151559060126</v>
       </c>
       <c r="M6">
-        <v>1.047084163251866</v>
+        <v>1.059701961462942</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022170348764466</v>
+        <v>1.041208031428442</v>
       </c>
       <c r="D7">
-        <v>1.036454820873717</v>
+        <v>1.044230638642651</v>
       </c>
       <c r="E7">
-        <v>1.032197042998028</v>
+        <v>1.048490947607293</v>
       </c>
       <c r="F7">
-        <v>1.036309475204805</v>
+        <v>1.057010410614608</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054531527037094</v>
+        <v>1.041842803296893</v>
       </c>
       <c r="J7">
-        <v>1.04101755838541</v>
+        <v>1.045712803566204</v>
       </c>
       <c r="K7">
-        <v>1.046129449431988</v>
+        <v>1.046693280500341</v>
       </c>
       <c r="L7">
-        <v>1.041918931484339</v>
+        <v>1.050943047057147</v>
       </c>
       <c r="M7">
-        <v>1.045985709181993</v>
+        <v>1.059441702155922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01647626677467</v>
+        <v>1.04000096078652</v>
       </c>
       <c r="D8">
-        <v>1.032154218547992</v>
+        <v>1.043303327061337</v>
       </c>
       <c r="E8">
-        <v>1.027252939794278</v>
+        <v>1.047371547906698</v>
       </c>
       <c r="F8">
-        <v>1.030523153156187</v>
+        <v>1.055677136890551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052567282859865</v>
+        <v>1.041513237355955</v>
       </c>
       <c r="J8">
-        <v>1.037617088870992</v>
+        <v>1.04497192477921</v>
       </c>
       <c r="K8">
-        <v>1.042915566902231</v>
+        <v>1.046014591048243</v>
       </c>
       <c r="L8">
-        <v>1.038075985249856</v>
+        <v>1.050071662551821</v>
       </c>
       <c r="M8">
-        <v>1.041304952037069</v>
+        <v>1.058354777957166</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005979351808515</v>
+        <v>1.037876528091758</v>
       </c>
       <c r="D9">
-        <v>1.024241282787657</v>
+        <v>1.041670464601232</v>
       </c>
       <c r="E9">
-        <v>1.018186287179187</v>
+        <v>1.045404648419297</v>
       </c>
       <c r="F9">
-        <v>1.01991751208155</v>
+        <v>1.053335967298721</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048862598722451</v>
+        <v>1.040923097686925</v>
       </c>
       <c r="J9">
-        <v>1.031322716358437</v>
+        <v>1.043664110595815</v>
       </c>
       <c r="K9">
-        <v>1.036952934964264</v>
+        <v>1.044814654877621</v>
       </c>
       <c r="L9">
-        <v>1.030991037917835</v>
+        <v>1.048536849176096</v>
       </c>
       <c r="M9">
-        <v>1.032695500303332</v>
+        <v>1.056443010994521</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9986366760928835</v>
+        <v>1.036462033688124</v>
       </c>
       <c r="D10">
-        <v>1.018719689675193</v>
+        <v>1.040582762277525</v>
       </c>
       <c r="E10">
-        <v>1.011878768688703</v>
+        <v>1.044097241174736</v>
       </c>
       <c r="F10">
-        <v>1.012541742629544</v>
+        <v>1.051780794084997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046217044049083</v>
+        <v>1.040523385298083</v>
       </c>
       <c r="J10">
-        <v>1.026904489221032</v>
+        <v>1.042790749141807</v>
       </c>
       <c r="K10">
-        <v>1.032758984590652</v>
+        <v>1.044012066693779</v>
       </c>
       <c r="L10">
-        <v>1.02603681013512</v>
+        <v>1.047514156549238</v>
       </c>
       <c r="M10">
-        <v>1.02668818505045</v>
+        <v>1.055170941308986</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9953673972051559</v>
+        <v>1.035849979625534</v>
       </c>
       <c r="D11">
-        <v>1.016265238097804</v>
+        <v>1.040111998788371</v>
       </c>
       <c r="E11">
-        <v>1.009079185077779</v>
+        <v>1.043532050627646</v>
       </c>
       <c r="F11">
-        <v>1.009268275879134</v>
+        <v>1.051108731918158</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045026875602168</v>
+        <v>1.040348821826855</v>
       </c>
       <c r="J11">
-        <v>1.024934175913798</v>
+        <v>1.042412233057824</v>
       </c>
       <c r="K11">
-        <v>1.030886799138938</v>
+        <v>1.043663925119563</v>
       </c>
       <c r="L11">
-        <v>1.023831888617669</v>
+        <v>1.047071454383241</v>
       </c>
       <c r="M11">
-        <v>1.024017497417861</v>
+        <v>1.054620713970781</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9941388015739897</v>
+        <v>1.035622701221376</v>
       </c>
       <c r="D12">
-        <v>1.015343526032281</v>
+        <v>1.039937170454716</v>
       </c>
       <c r="E12">
-        <v>1.008028474515555</v>
+        <v>1.043322253981537</v>
       </c>
       <c r="F12">
-        <v>1.008039723591837</v>
+        <v>1.050859300329804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04457782058683</v>
+        <v>1.040283758576276</v>
       </c>
       <c r="J12">
-        <v>1.024193306082723</v>
+        <v>1.04227158440704</v>
       </c>
       <c r="K12">
-        <v>1.030182556055887</v>
+        <v>1.043534518279036</v>
       </c>
       <c r="L12">
-        <v>1.023003461235063</v>
+        <v>1.046907035672839</v>
       </c>
       <c r="M12">
-        <v>1.023014499259191</v>
+        <v>1.05441642433547</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9944029963535818</v>
+        <v>1.035671450221495</v>
       </c>
       <c r="D13">
-        <v>1.015541697684537</v>
+        <v>1.039974670157615</v>
       </c>
       <c r="E13">
-        <v>1.008254354325077</v>
+        <v>1.043367249705812</v>
       </c>
       <c r="F13">
-        <v>1.008303835440497</v>
+        <v>1.050912795082025</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04467446449653</v>
+        <v>1.040297724928802</v>
       </c>
       <c r="J13">
-        <v>1.024352639776197</v>
+        <v>1.042301756310341</v>
       </c>
       <c r="K13">
-        <v>1.030334024720488</v>
+        <v>1.043562280613951</v>
       </c>
       <c r="L13">
-        <v>1.023181595632707</v>
+        <v>1.046942303097063</v>
       </c>
       <c r="M13">
-        <v>1.023230152096409</v>
+        <v>1.054460241097606</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9952661360615398</v>
+        <v>1.035831191375605</v>
       </c>
       <c r="D14">
-        <v>1.016189256310163</v>
+        <v>1.040097546718766</v>
       </c>
       <c r="E14">
-        <v>1.008992557038732</v>
+        <v>1.043514705902337</v>
       </c>
       <c r="F14">
-        <v>1.009166985242994</v>
+        <v>1.051088109693053</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044989900450951</v>
+        <v>1.040343448216122</v>
       </c>
       <c r="J14">
-        <v>1.024873121639044</v>
+        <v>1.042400608030209</v>
       </c>
       <c r="K14">
-        <v>1.030828768665048</v>
+        <v>1.043653230172165</v>
       </c>
       <c r="L14">
-        <v>1.023763605459373</v>
+        <v>1.047057863055736</v>
       </c>
       <c r="M14">
-        <v>1.023934816680134</v>
+        <v>1.054603825497956</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9957960349749128</v>
+        <v>1.035929621909787</v>
       </c>
       <c r="D15">
-        <v>1.016586896304834</v>
+        <v>1.040173259592961</v>
       </c>
       <c r="E15">
-        <v>1.00944593731003</v>
+        <v>1.043605577158775</v>
       </c>
       <c r="F15">
-        <v>1.009697104606828</v>
+        <v>1.051196153643307</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045183318547919</v>
+        <v>1.040371590361818</v>
       </c>
       <c r="J15">
-        <v>1.025192601180066</v>
+        <v>1.042461507115794</v>
       </c>
       <c r="K15">
-        <v>1.031132414558308</v>
+        <v>1.043709255092002</v>
       </c>
       <c r="L15">
-        <v>1.024120938500938</v>
+        <v>1.047129066117353</v>
       </c>
       <c r="M15">
-        <v>1.02436751106281</v>
+        <v>1.054692304450727</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9988516922299175</v>
+        <v>1.036502662867062</v>
       </c>
       <c r="D16">
-        <v>1.018881204923569</v>
+        <v>1.040614010021956</v>
       </c>
       <c r="E16">
-        <v>1.012063081202923</v>
+        <v>1.044134770614501</v>
       </c>
       <c r="F16">
-        <v>1.012757256649979</v>
+        <v>1.051825424931309</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046295068852086</v>
+        <v>1.040534939253072</v>
       </c>
       <c r="J16">
-        <v>1.02703401264664</v>
+        <v>1.042815862818024</v>
       </c>
       <c r="K16">
-        <v>1.032882019084347</v>
+        <v>1.044035158812755</v>
       </c>
       <c r="L16">
-        <v>1.026181847731742</v>
+        <v>1.047543540066951</v>
       </c>
       <c r="M16">
-        <v>1.026863920043501</v>
+        <v>1.055207470549033</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000743862389929</v>
+        <v>1.036862232453386</v>
       </c>
       <c r="D17">
-        <v>1.02030302404265</v>
+        <v>1.040890540628318</v>
       </c>
       <c r="E17">
-        <v>1.013686063021854</v>
+        <v>1.04446696833425</v>
       </c>
       <c r="F17">
-        <v>1.014655012613294</v>
+        <v>1.052220509271004</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046980308641386</v>
+        <v>1.040637006412749</v>
       </c>
       <c r="J17">
-        <v>1.028173485045096</v>
+        <v>1.043038049093456</v>
       </c>
       <c r="K17">
-        <v>1.0339641923085</v>
+        <v>1.044239425448929</v>
       </c>
       <c r="L17">
-        <v>1.027458307141059</v>
+        <v>1.047803564253176</v>
       </c>
       <c r="M17">
-        <v>1.028410874619242</v>
+        <v>1.055530778606474</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001838916493521</v>
+        <v>1.037072004866549</v>
       </c>
       <c r="D18">
-        <v>1.021126247258039</v>
+        <v>1.041051857274865</v>
       </c>
       <c r="E18">
-        <v>1.01462616131694</v>
+        <v>1.044660822849026</v>
       </c>
       <c r="F18">
-        <v>1.01575429795416</v>
+        <v>1.052451084309085</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047375710780454</v>
+        <v>1.040696397106258</v>
       </c>
       <c r="J18">
-        <v>1.028832631336727</v>
+        <v>1.043167613260471</v>
       </c>
       <c r="K18">
-        <v>1.034590013048831</v>
+        <v>1.044358511263767</v>
       </c>
       <c r="L18">
-        <v>1.028197115355514</v>
+        <v>1.04795524448632</v>
       </c>
       <c r="M18">
-        <v>1.029306522041233</v>
+        <v>1.055719415313594</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00221086175628</v>
+        <v>1.037143538859233</v>
       </c>
       <c r="D19">
-        <v>1.021405924217173</v>
+        <v>1.041106865608258</v>
       </c>
       <c r="E19">
-        <v>1.014945613928042</v>
+        <v>1.044726937321499</v>
       </c>
       <c r="F19">
-        <v>1.016127848842248</v>
+        <v>1.052529726287539</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047509813474012</v>
+        <v>1.040716623465784</v>
       </c>
       <c r="J19">
-        <v>1.02905646436852</v>
+        <v>1.043211785613355</v>
       </c>
       <c r="K19">
-        <v>1.034802498489183</v>
+        <v>1.044399106335839</v>
       </c>
       <c r="L19">
-        <v>1.028448071332583</v>
+        <v>1.048006965620623</v>
       </c>
       <c r="M19">
-        <v>1.029610800185501</v>
+        <v>1.055783745121486</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000541746898525</v>
+        <v>1.036823649734588</v>
       </c>
       <c r="D20">
-        <v>1.020151110534774</v>
+        <v>1.040860869327348</v>
       </c>
       <c r="E20">
-        <v>1.013512614749131</v>
+        <v>1.044431317426811</v>
       </c>
       <c r="F20">
-        <v>1.014452196639908</v>
+        <v>1.052178107105898</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046907234169786</v>
+        <v>1.040626070396212</v>
       </c>
       <c r="J20">
-        <v>1.028051801072851</v>
+        <v>1.043014214049778</v>
       </c>
       <c r="K20">
-        <v>1.033848645879822</v>
+        <v>1.044217515715342</v>
       </c>
       <c r="L20">
-        <v>1.027321950862614</v>
+        <v>1.047775664816255</v>
       </c>
       <c r="M20">
-        <v>1.028245594264644</v>
+        <v>1.055496084850819</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9950123622292992</v>
+        <v>1.035784149765377</v>
       </c>
       <c r="D21">
-        <v>1.015998846949122</v>
+        <v>1.04006136167984</v>
       </c>
       <c r="E21">
-        <v>1.008775478010127</v>
+        <v>1.043471279844989</v>
       </c>
       <c r="F21">
-        <v>1.008913163663572</v>
+        <v>1.051036478317765</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044897207178364</v>
+        <v>1.040329989988151</v>
       </c>
       <c r="J21">
-        <v>1.024720104838655</v>
+        <v>1.042371500061194</v>
       </c>
       <c r="K21">
-        <v>1.030683325922647</v>
+        <v>1.043626450314154</v>
       </c>
       <c r="L21">
-        <v>1.023592481921615</v>
+        <v>1.047023832952025</v>
       </c>
       <c r="M21">
-        <v>1.023727618367816</v>
+        <v>1.054561540997145</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.99145302578421</v>
+        <v>1.03513095560871</v>
       </c>
       <c r="D22">
-        <v>1.013329928726804</v>
+        <v>1.039558877934955</v>
       </c>
       <c r="E22">
-        <v>1.00573414999801</v>
+        <v>1.042868478399376</v>
       </c>
       <c r="F22">
-        <v>1.005357053885114</v>
+        <v>1.050319861584365</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043592930290673</v>
+        <v>1.040142544836716</v>
       </c>
       <c r="J22">
-        <v>1.02257299244301</v>
+        <v>1.041967106074668</v>
       </c>
       <c r="K22">
-        <v>1.028641862870752</v>
+        <v>1.043254294765117</v>
       </c>
       <c r="L22">
-        <v>1.021192861741284</v>
+        <v>1.046551246005844</v>
       </c>
       <c r="M22">
-        <v>1.020823128283898</v>
+        <v>1.053974473361649</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9933480062367644</v>
+        <v>1.035477189792415</v>
       </c>
       <c r="D23">
-        <v>1.014750456943976</v>
+        <v>1.039825234826178</v>
       </c>
       <c r="E23">
-        <v>1.00735257003832</v>
+        <v>1.043187957436619</v>
       </c>
       <c r="F23">
-        <v>1.007249416084836</v>
+        <v>1.05069964231641</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044288285111163</v>
+        <v>1.040242034926423</v>
       </c>
       <c r="J23">
-        <v>1.023716325039352</v>
+        <v>1.042181510570191</v>
       </c>
       <c r="K23">
-        <v>1.029729081052584</v>
+        <v>1.043451631322228</v>
       </c>
       <c r="L23">
-        <v>1.022470294605452</v>
+        <v>1.046801761624401</v>
       </c>
       <c r="M23">
-        <v>1.022369099115253</v>
+        <v>1.054285639641836</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000633100763442</v>
+        <v>1.036841083476087</v>
       </c>
       <c r="D24">
-        <v>1.020219772526283</v>
+        <v>1.040874276446247</v>
       </c>
       <c r="E24">
-        <v>1.013591008789014</v>
+        <v>1.044447426261797</v>
       </c>
       <c r="F24">
-        <v>1.014543864020961</v>
+        <v>1.052197266420554</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046940266605401</v>
+        <v>1.040631012354329</v>
       </c>
       <c r="J24">
-        <v>1.028106801753564</v>
+        <v>1.043024984183099</v>
       </c>
       <c r="K24">
-        <v>1.033900872973692</v>
+        <v>1.044227415964651</v>
       </c>
       <c r="L24">
-        <v>1.027383582066958</v>
+        <v>1.047788271332266</v>
       </c>
       <c r="M24">
-        <v>1.028320297899659</v>
+        <v>1.055511761290866</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008751246163476</v>
+        <v>1.038425433012668</v>
       </c>
       <c r="D25">
-        <v>1.026328740745335</v>
+        <v>1.042092450723106</v>
       </c>
       <c r="E25">
-        <v>1.020574698353005</v>
+        <v>1.045912464504228</v>
       </c>
       <c r="F25">
-        <v>1.022710823523756</v>
+        <v>1.053940232979099</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049850394300008</v>
+        <v>1.041076773494662</v>
       </c>
       <c r="J25">
-        <v>1.032987643026267</v>
+        <v>1.044002477745125</v>
       </c>
       <c r="K25">
-        <v>1.038531636999481</v>
+        <v>1.045125335051925</v>
       </c>
       <c r="L25">
-        <v>1.032861799047632</v>
+        <v>1.048933548678691</v>
       </c>
       <c r="M25">
-        <v>1.034966523874319</v>
+        <v>1.056936823114824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_225/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_225/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039690384347496</v>
+        <v>1.014980092205896</v>
       </c>
       <c r="D2">
-        <v>1.043064676187131</v>
+        <v>1.031025087677407</v>
       </c>
       <c r="E2">
-        <v>1.047083747646935</v>
+        <v>1.025956923607655</v>
       </c>
       <c r="F2">
-        <v>1.055334453513963</v>
+        <v>1.029006775434958</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041427754092699</v>
+        <v>1.052045502698073</v>
       </c>
       <c r="J2">
-        <v>1.044781034722958</v>
+        <v>1.036721800111263</v>
       </c>
       <c r="K2">
-        <v>1.045839595071605</v>
+        <v>1.042068474229742</v>
       </c>
       <c r="L2">
-        <v>1.049847376264761</v>
+        <v>1.037066104231052</v>
       </c>
       <c r="M2">
-        <v>1.05807519649695</v>
+        <v>1.040076266184081</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040609577373308</v>
+        <v>1.019371112021891</v>
       </c>
       <c r="D3">
-        <v>1.043770930488109</v>
+        <v>1.03433997710108</v>
       </c>
       <c r="E3">
-        <v>1.047935789649966</v>
+        <v>1.029764137269242</v>
       </c>
       <c r="F3">
-        <v>1.056349101702798</v>
+        <v>1.033461792096097</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041679943851033</v>
+        <v>1.053570301801234</v>
       </c>
       <c r="J3">
-        <v>1.045345689014042</v>
+        <v>1.039347277993212</v>
       </c>
       <c r="K3">
-        <v>1.04635708247969</v>
+        <v>1.044551545422975</v>
       </c>
       <c r="L3">
-        <v>1.050511086525434</v>
+        <v>1.04002983406115</v>
       </c>
       <c r="M3">
-        <v>1.058902752084843</v>
+        <v>1.043683702609445</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041204687713334</v>
+        <v>1.022154837590651</v>
       </c>
       <c r="D4">
-        <v>1.044228070383623</v>
+        <v>1.036443098795098</v>
       </c>
       <c r="E4">
-        <v>1.048487844858186</v>
+        <v>1.032183548927423</v>
       </c>
       <c r="F4">
-        <v>1.057006714139266</v>
+        <v>1.036293678601772</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041841896329369</v>
+        <v>1.054526225216746</v>
       </c>
       <c r="J4">
-        <v>1.04571075354616</v>
+        <v>1.041008310950403</v>
       </c>
       <c r="K4">
-        <v>1.046691403682436</v>
+        <v>1.046120717502175</v>
       </c>
       <c r="L4">
-        <v>1.050940633937387</v>
+        <v>1.041908464401148</v>
       </c>
       <c r="M4">
-        <v>1.059438690554835</v>
+        <v>1.045972948336463</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041454950318723</v>
+        <v>1.02331180753709</v>
       </c>
       <c r="D5">
-        <v>1.044420285625037</v>
+        <v>1.03731753839221</v>
       </c>
       <c r="E5">
-        <v>1.04872010162592</v>
+        <v>1.033190461428787</v>
       </c>
       <c r="F5">
-        <v>1.057283428643119</v>
+        <v>1.037472468042476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041909685801265</v>
+        <v>1.054920911052131</v>
       </c>
       <c r="J5">
-        <v>1.045864152826446</v>
+        <v>1.041697818772709</v>
       </c>
       <c r="K5">
-        <v>1.04683182498823</v>
+        <v>1.046771659378992</v>
       </c>
       <c r="L5">
-        <v>1.051121234383256</v>
+        <v>1.04268916882104</v>
       </c>
       <c r="M5">
-        <v>1.059664106800136</v>
+        <v>1.046924923730592</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04149697506855</v>
+        <v>1.023505300752062</v>
       </c>
       <c r="D6">
-        <v>1.04445256134245</v>
+        <v>1.037463799611075</v>
       </c>
       <c r="E6">
-        <v>1.048759108652024</v>
+        <v>1.033358937783496</v>
       </c>
       <c r="F6">
-        <v>1.05732990509794</v>
+        <v>1.037669715854872</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041921050614766</v>
+        <v>1.054986764057786</v>
       </c>
       <c r="J6">
-        <v>1.045889904882781</v>
+        <v>1.041813082172937</v>
       </c>
       <c r="K6">
-        <v>1.046855394848232</v>
+        <v>1.046880450005723</v>
       </c>
       <c r="L6">
-        <v>1.051151559060126</v>
+        <v>1.042819728705087</v>
       </c>
       <c r="M6">
-        <v>1.059701961462942</v>
+        <v>1.047084163251867</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041208031428442</v>
+        <v>1.022170348764465</v>
       </c>
       <c r="D7">
-        <v>1.044230638642651</v>
+        <v>1.036454820873716</v>
       </c>
       <c r="E7">
-        <v>1.048490947607293</v>
+        <v>1.032197042998027</v>
       </c>
       <c r="F7">
-        <v>1.057010410614608</v>
+        <v>1.036309475204804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041842803296893</v>
+        <v>1.054531527037094</v>
       </c>
       <c r="J7">
-        <v>1.045712803566204</v>
+        <v>1.04101755838541</v>
       </c>
       <c r="K7">
-        <v>1.046693280500341</v>
+        <v>1.046129449431987</v>
       </c>
       <c r="L7">
-        <v>1.050943047057147</v>
+        <v>1.041918931484338</v>
       </c>
       <c r="M7">
-        <v>1.059441702155922</v>
+        <v>1.045985709181992</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04000096078652</v>
+        <v>1.016476266774669</v>
       </c>
       <c r="D8">
-        <v>1.043303327061337</v>
+        <v>1.032154218547992</v>
       </c>
       <c r="E8">
-        <v>1.047371547906698</v>
+        <v>1.027252939794277</v>
       </c>
       <c r="F8">
-        <v>1.055677136890551</v>
+        <v>1.030523153156187</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041513237355955</v>
+        <v>1.052567282859865</v>
       </c>
       <c r="J8">
-        <v>1.04497192477921</v>
+        <v>1.037617088870991</v>
       </c>
       <c r="K8">
-        <v>1.046014591048243</v>
+        <v>1.04291556690223</v>
       </c>
       <c r="L8">
-        <v>1.050071662551821</v>
+        <v>1.038075985249856</v>
       </c>
       <c r="M8">
-        <v>1.058354777957166</v>
+        <v>1.041304952037069</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037876528091758</v>
+        <v>1.005979351808514</v>
       </c>
       <c r="D9">
-        <v>1.041670464601232</v>
+        <v>1.024241282787656</v>
       </c>
       <c r="E9">
-        <v>1.045404648419297</v>
+        <v>1.018186287179186</v>
       </c>
       <c r="F9">
-        <v>1.053335967298721</v>
+        <v>1.019917512081549</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040923097686925</v>
+        <v>1.04886259872245</v>
       </c>
       <c r="J9">
-        <v>1.043664110595815</v>
+        <v>1.031322716358436</v>
       </c>
       <c r="K9">
-        <v>1.044814654877621</v>
+        <v>1.036952934964264</v>
       </c>
       <c r="L9">
-        <v>1.048536849176096</v>
+        <v>1.030991037917834</v>
       </c>
       <c r="M9">
-        <v>1.056443010994521</v>
+        <v>1.032695500303332</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036462033688124</v>
+        <v>0.9986366760928821</v>
       </c>
       <c r="D10">
-        <v>1.040582762277525</v>
+        <v>1.018719689675192</v>
       </c>
       <c r="E10">
-        <v>1.044097241174736</v>
+        <v>1.011878768688703</v>
       </c>
       <c r="F10">
-        <v>1.051780794084997</v>
+        <v>1.012541742629543</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040523385298083</v>
+        <v>1.046217044049082</v>
       </c>
       <c r="J10">
-        <v>1.042790749141807</v>
+        <v>1.026904489221031</v>
       </c>
       <c r="K10">
-        <v>1.044012066693779</v>
+        <v>1.032758984590651</v>
       </c>
       <c r="L10">
-        <v>1.047514156549238</v>
+        <v>1.026036810135119</v>
       </c>
       <c r="M10">
-        <v>1.055170941308986</v>
+        <v>1.02668818505045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035849979625534</v>
+        <v>0.9953673972051558</v>
       </c>
       <c r="D11">
-        <v>1.040111998788371</v>
+        <v>1.016265238097804</v>
       </c>
       <c r="E11">
-        <v>1.043532050627646</v>
+        <v>1.009079185077778</v>
       </c>
       <c r="F11">
-        <v>1.051108731918158</v>
+        <v>1.009268275879134</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040348821826855</v>
+        <v>1.045026875602168</v>
       </c>
       <c r="J11">
-        <v>1.042412233057824</v>
+        <v>1.024934175913798</v>
       </c>
       <c r="K11">
-        <v>1.043663925119563</v>
+        <v>1.030886799138938</v>
       </c>
       <c r="L11">
-        <v>1.047071454383241</v>
+        <v>1.023831888617669</v>
       </c>
       <c r="M11">
-        <v>1.054620713970781</v>
+        <v>1.024017497417861</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035622701221376</v>
+        <v>0.9941388015739889</v>
       </c>
       <c r="D12">
-        <v>1.039937170454716</v>
+        <v>1.01534352603228</v>
       </c>
       <c r="E12">
-        <v>1.043322253981537</v>
+        <v>1.008028474515554</v>
       </c>
       <c r="F12">
-        <v>1.050859300329804</v>
+        <v>1.008039723591837</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040283758576276</v>
+        <v>1.044577820586829</v>
       </c>
       <c r="J12">
-        <v>1.04227158440704</v>
+        <v>1.024193306082723</v>
       </c>
       <c r="K12">
-        <v>1.043534518279036</v>
+        <v>1.030182556055886</v>
       </c>
       <c r="L12">
-        <v>1.046907035672839</v>
+        <v>1.023003461235063</v>
       </c>
       <c r="M12">
-        <v>1.05441642433547</v>
+        <v>1.02301449925919</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035671450221495</v>
+        <v>0.994402996353581</v>
       </c>
       <c r="D13">
-        <v>1.039974670157615</v>
+        <v>1.015541697684536</v>
       </c>
       <c r="E13">
-        <v>1.043367249705812</v>
+        <v>1.008254354325077</v>
       </c>
       <c r="F13">
-        <v>1.050912795082025</v>
+        <v>1.008303835440496</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040297724928802</v>
+        <v>1.04467446449653</v>
       </c>
       <c r="J13">
-        <v>1.042301756310341</v>
+        <v>1.024352639776197</v>
       </c>
       <c r="K13">
-        <v>1.043562280613951</v>
+        <v>1.030334024720487</v>
       </c>
       <c r="L13">
-        <v>1.046942303097063</v>
+        <v>1.023181595632706</v>
       </c>
       <c r="M13">
-        <v>1.054460241097606</v>
+        <v>1.023230152096408</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035831191375605</v>
+        <v>0.9952661360615391</v>
       </c>
       <c r="D14">
-        <v>1.040097546718766</v>
+        <v>1.016189256310162</v>
       </c>
       <c r="E14">
-        <v>1.043514705902337</v>
+        <v>1.008992557038732</v>
       </c>
       <c r="F14">
-        <v>1.051088109693053</v>
+        <v>1.009166985242993</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040343448216122</v>
+        <v>1.044989900450951</v>
       </c>
       <c r="J14">
-        <v>1.042400608030209</v>
+        <v>1.024873121639044</v>
       </c>
       <c r="K14">
-        <v>1.043653230172165</v>
+        <v>1.030828768665048</v>
       </c>
       <c r="L14">
-        <v>1.047057863055736</v>
+        <v>1.023763605459372</v>
       </c>
       <c r="M14">
-        <v>1.054603825497956</v>
+        <v>1.023934816680133</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035929621909787</v>
+        <v>0.9957960349749123</v>
       </c>
       <c r="D15">
-        <v>1.040173259592961</v>
+        <v>1.016586896304833</v>
       </c>
       <c r="E15">
-        <v>1.043605577158775</v>
+        <v>1.009445937310029</v>
       </c>
       <c r="F15">
-        <v>1.051196153643307</v>
+        <v>1.009697104606827</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040371590361818</v>
+        <v>1.045183318547918</v>
       </c>
       <c r="J15">
-        <v>1.042461507115794</v>
+        <v>1.025192601180066</v>
       </c>
       <c r="K15">
-        <v>1.043709255092002</v>
+        <v>1.031132414558308</v>
       </c>
       <c r="L15">
-        <v>1.047129066117353</v>
+        <v>1.024120938500937</v>
       </c>
       <c r="M15">
-        <v>1.054692304450727</v>
+        <v>1.024367511062809</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036502662867062</v>
+        <v>0.9988516922299185</v>
       </c>
       <c r="D16">
-        <v>1.040614010021956</v>
+        <v>1.01888120492357</v>
       </c>
       <c r="E16">
-        <v>1.044134770614501</v>
+        <v>1.012063081202924</v>
       </c>
       <c r="F16">
-        <v>1.051825424931309</v>
+        <v>1.01275725664998</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040534939253072</v>
+        <v>1.046295068852087</v>
       </c>
       <c r="J16">
-        <v>1.042815862818024</v>
+        <v>1.027034012646641</v>
       </c>
       <c r="K16">
-        <v>1.044035158812755</v>
+        <v>1.032882019084348</v>
       </c>
       <c r="L16">
-        <v>1.047543540066951</v>
+        <v>1.026181847731744</v>
       </c>
       <c r="M16">
-        <v>1.055207470549033</v>
+        <v>1.026863920043502</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036862232453386</v>
+        <v>1.000743862389929</v>
       </c>
       <c r="D17">
-        <v>1.040890540628318</v>
+        <v>1.020303024042649</v>
       </c>
       <c r="E17">
-        <v>1.04446696833425</v>
+        <v>1.013686063021854</v>
       </c>
       <c r="F17">
-        <v>1.052220509271004</v>
+        <v>1.014655012613294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040637006412749</v>
+        <v>1.046980308641386</v>
       </c>
       <c r="J17">
-        <v>1.043038049093456</v>
+        <v>1.028173485045096</v>
       </c>
       <c r="K17">
-        <v>1.044239425448929</v>
+        <v>1.033964192308499</v>
       </c>
       <c r="L17">
-        <v>1.047803564253176</v>
+        <v>1.027458307141058</v>
       </c>
       <c r="M17">
-        <v>1.055530778606474</v>
+        <v>1.028410874619241</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037072004866549</v>
+        <v>1.001838916493521</v>
       </c>
       <c r="D18">
-        <v>1.041051857274865</v>
+        <v>1.021126247258039</v>
       </c>
       <c r="E18">
-        <v>1.044660822849026</v>
+        <v>1.01462616131694</v>
       </c>
       <c r="F18">
-        <v>1.052451084309085</v>
+        <v>1.015754297954161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040696397106258</v>
+        <v>1.047375710780454</v>
       </c>
       <c r="J18">
-        <v>1.043167613260471</v>
+        <v>1.028832631336727</v>
       </c>
       <c r="K18">
-        <v>1.044358511263767</v>
+        <v>1.034590013048831</v>
       </c>
       <c r="L18">
-        <v>1.04795524448632</v>
+        <v>1.028197115355515</v>
       </c>
       <c r="M18">
-        <v>1.055719415313594</v>
+        <v>1.029306522041233</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037143538859233</v>
+        <v>1.002210861756279</v>
       </c>
       <c r="D19">
-        <v>1.041106865608258</v>
+        <v>1.021405924217172</v>
       </c>
       <c r="E19">
-        <v>1.044726937321499</v>
+        <v>1.014945613928041</v>
       </c>
       <c r="F19">
-        <v>1.052529726287539</v>
+        <v>1.016127848842246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040716623465784</v>
+        <v>1.047509813474012</v>
       </c>
       <c r="J19">
-        <v>1.043211785613355</v>
+        <v>1.02905646436852</v>
       </c>
       <c r="K19">
-        <v>1.044399106335839</v>
+        <v>1.034802498489182</v>
       </c>
       <c r="L19">
-        <v>1.048006965620623</v>
+        <v>1.028448071332582</v>
       </c>
       <c r="M19">
-        <v>1.055783745121486</v>
+        <v>1.0296108001855</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036823649734588</v>
+        <v>1.000541746898526</v>
       </c>
       <c r="D20">
-        <v>1.040860869327348</v>
+        <v>1.020151110534775</v>
       </c>
       <c r="E20">
-        <v>1.044431317426811</v>
+        <v>1.013512614749132</v>
       </c>
       <c r="F20">
-        <v>1.052178107105898</v>
+        <v>1.014452196639908</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040626070396212</v>
+        <v>1.046907234169787</v>
       </c>
       <c r="J20">
-        <v>1.043014214049778</v>
+        <v>1.028051801072851</v>
       </c>
       <c r="K20">
-        <v>1.044217515715342</v>
+        <v>1.033848645879823</v>
       </c>
       <c r="L20">
-        <v>1.047775664816255</v>
+        <v>1.027321950862614</v>
       </c>
       <c r="M20">
-        <v>1.055496084850819</v>
+        <v>1.028245594264643</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035784149765377</v>
+        <v>0.9950123622292997</v>
       </c>
       <c r="D21">
-        <v>1.04006136167984</v>
+        <v>1.015998846949122</v>
       </c>
       <c r="E21">
-        <v>1.043471279844989</v>
+        <v>1.008775478010127</v>
       </c>
       <c r="F21">
-        <v>1.051036478317765</v>
+        <v>1.008913163663572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040329989988151</v>
+        <v>1.044897207178365</v>
       </c>
       <c r="J21">
-        <v>1.042371500061194</v>
+        <v>1.024720104838655</v>
       </c>
       <c r="K21">
-        <v>1.043626450314154</v>
+        <v>1.030683325922647</v>
       </c>
       <c r="L21">
-        <v>1.047023832952025</v>
+        <v>1.023592481921615</v>
       </c>
       <c r="M21">
-        <v>1.054561540997145</v>
+        <v>1.023727618367816</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03513095560871</v>
+        <v>0.99145302578421</v>
       </c>
       <c r="D22">
-        <v>1.039558877934955</v>
+        <v>1.013329928726804</v>
       </c>
       <c r="E22">
-        <v>1.042868478399376</v>
+        <v>1.00573414999801</v>
       </c>
       <c r="F22">
-        <v>1.050319861584365</v>
+        <v>1.005357053885114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040142544836716</v>
+        <v>1.043592930290673</v>
       </c>
       <c r="J22">
-        <v>1.041967106074668</v>
+        <v>1.02257299244301</v>
       </c>
       <c r="K22">
-        <v>1.043254294765117</v>
+        <v>1.028641862870752</v>
       </c>
       <c r="L22">
-        <v>1.046551246005844</v>
+        <v>1.021192861741284</v>
       </c>
       <c r="M22">
-        <v>1.053974473361649</v>
+        <v>1.020823128283898</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035477189792415</v>
+        <v>0.9933480062367646</v>
       </c>
       <c r="D23">
-        <v>1.039825234826178</v>
+        <v>1.014750456943976</v>
       </c>
       <c r="E23">
-        <v>1.043187957436619</v>
+        <v>1.00735257003832</v>
       </c>
       <c r="F23">
-        <v>1.05069964231641</v>
+        <v>1.007249416084837</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040242034926423</v>
+        <v>1.044288285111163</v>
       </c>
       <c r="J23">
-        <v>1.042181510570191</v>
+        <v>1.023716325039353</v>
       </c>
       <c r="K23">
-        <v>1.043451631322228</v>
+        <v>1.029729081052583</v>
       </c>
       <c r="L23">
-        <v>1.046801761624401</v>
+        <v>1.022470294605452</v>
       </c>
       <c r="M23">
-        <v>1.054285639641836</v>
+        <v>1.022369099115253</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036841083476087</v>
+        <v>1.000633100763442</v>
       </c>
       <c r="D24">
-        <v>1.040874276446247</v>
+        <v>1.020219772526284</v>
       </c>
       <c r="E24">
-        <v>1.044447426261797</v>
+        <v>1.013591008789014</v>
       </c>
       <c r="F24">
-        <v>1.052197266420554</v>
+        <v>1.014543864020961</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040631012354329</v>
+        <v>1.046940266605401</v>
       </c>
       <c r="J24">
-        <v>1.043024984183099</v>
+        <v>1.028106801753564</v>
       </c>
       <c r="K24">
-        <v>1.044227415964651</v>
+        <v>1.033900872973692</v>
       </c>
       <c r="L24">
-        <v>1.047788271332266</v>
+        <v>1.027383582066958</v>
       </c>
       <c r="M24">
-        <v>1.055511761290866</v>
+        <v>1.028320297899659</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038425433012668</v>
+        <v>1.008751246163475</v>
       </c>
       <c r="D25">
-        <v>1.042092450723106</v>
+        <v>1.026328740745335</v>
       </c>
       <c r="E25">
-        <v>1.045912464504228</v>
+        <v>1.020574698353005</v>
       </c>
       <c r="F25">
-        <v>1.053940232979099</v>
+        <v>1.022710823523755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041076773494662</v>
+        <v>1.049850394300008</v>
       </c>
       <c r="J25">
-        <v>1.044002477745125</v>
+        <v>1.032987643026267</v>
       </c>
       <c r="K25">
-        <v>1.045125335051925</v>
+        <v>1.03853163699948</v>
       </c>
       <c r="L25">
-        <v>1.048933548678691</v>
+        <v>1.032861799047631</v>
       </c>
       <c r="M25">
-        <v>1.056936823114824</v>
+        <v>1.034966523874318</v>
       </c>
     </row>
   </sheetData>
